--- a/biology/Microbiologie/Lagynidae/Lagynidae.xlsx
+++ b/biology/Microbiologie/Lagynidae/Lagynidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lagynidae sont une famille de Foraminifères benthiques de l'ordre des Allogromiida.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Lagynidae Schultze, 1854[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Lagynidae Schultze, 1854.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (29 octobre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (29 octobre 2023) :
 Apogromia De Saedeleer, 1934
 Belaria De Saedeleer, 1934
 Boderia Wright, 1867
@@ -561,7 +577,7 @@
 Pseudoditrema Deflandre in Grassé, 1953
 Rhumblerinella Schmidt, 1929
 Schultzella Rhumbler, 1904
-Selon The Taxonomicon  (29 octobre 2023)[2] :
+Selon The Taxonomicon  (29 octobre 2023) :
 Sous-famille des Belariinae Mikhalevich, 1999
 Belaria de Saedeleer, 1934
 Cystophrys Archer, 1869
@@ -602,7 +618,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Max Schultze, Über den Organismus der Polythalamien (Foraminiferen) nebst Bemerkungen über die Rhizopoden im Allgemeinen, Leipzig, W. Engelmann, 1854 (lire en ligne), p. 1-68</t>
         </is>
